--- a/src/data/inputs/sources-guide.xlsx
+++ b/src/data/inputs/sources-guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/bruegel/data_new/WORKING/ENERGY/gas-demand/src/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6481F2-242B-5E42-9B81-3A93A23031FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F29EA-A7F1-D347-936B-5AEDFEE1378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21520" yWindow="500" windowWidth="16780" windowHeight="19640" xr2:uid="{8D505957-1A62-5F40-9BA7-A9611DA49F6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8D505957-1A62-5F40-9BA7-A9611DA49F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,12 +248,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -591,14 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A50B2BC-7E94-1742-82E2-4355077DD989}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -646,7 +645,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
@@ -741,19 +740,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
@@ -761,15 +760,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
@@ -791,10 +788,10 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
@@ -834,7 +831,7 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
@@ -879,10 +876,10 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
@@ -899,22 +896,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
       </c>
       <c r="J19" t="s">
@@ -931,7 +928,7 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -939,10 +936,10 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
@@ -962,10 +959,10 @@
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D22" t="s">

--- a/src/data/inputs/sources-guide.xlsx
+++ b/src/data/inputs/sources-guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/bruegel/data_new/WORKING/ENERGY/gas-demand/src/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F29EA-A7F1-D347-936B-5AEDFEE1378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957E779-BB76-6844-A944-C09093A3610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8D505957-1A62-5F40-9BA7-A9611DA49F6F}"/>
+    <workbookView xWindow="4300" yWindow="740" windowWidth="24920" windowHeight="16940" xr2:uid="{8D505957-1A62-5F40-9BA7-A9611DA49F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>AT</t>
   </si>
@@ -189,13 +189,22 @@
   </si>
   <si>
     <t>for monthly data we use BNetzA for household and can hence calculate industry demand</t>
+  </si>
+  <si>
+    <t>industry-household</t>
+  </si>
+  <si>
+    <t>enagas</t>
+  </si>
+  <si>
+    <t>eurostat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,8 +224,19 @@
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,12 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A50B2BC-7E94-1742-82E2-4355077DD989}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,10 +617,11 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -621,13 +638,16 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,11 +657,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,11 +680,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -671,11 +694,14 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -685,22 +711,31 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -710,11 +745,14 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -724,306 +762,358 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1039,16 +1129,16 @@
       <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
